--- a/wikipedia_validation_sheets/Nicotine poisoning DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Nicotine poisoning DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{12315674-A58D-5548-B30B-ADED2471DCDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D157FB-89E3-414C-B3AB-2D5F1AFA6006}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{D9DFAC0E-D9E5-4165-A533-9B6530FEE7CB}"/>
+    <workbookView xWindow="41220" yWindow="560" windowWidth="20500" windowHeight="21040" xr2:uid="{D9DFAC0E-D9E5-4165-A533-9B6530FEE7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="106">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -303,19 +308,46 @@
     <t>NO</t>
   </si>
   <si>
-    <t>TACHYCARDIA</t>
-  </si>
-  <si>
-    <t>BRADYCARDIA</t>
-  </si>
-  <si>
-    <t>COMA</t>
-  </si>
-  <si>
     <t>FPCONTEXT</t>
   </si>
   <si>
-    <t>FN</t>
+    <t>bradycardia</t>
+  </si>
+  <si>
+    <t>Bradycardia</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>tachycardia</t>
+  </si>
+  <si>
+    <t>Tachycardia</t>
+  </si>
+  <si>
+    <t>concentrations</t>
+  </si>
+  <si>
+    <t>Mental concentration</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>Oculomotor apraxia - Cogan type</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>adverse, effects, effect</t>
+  </si>
+  <si>
+    <t>Adverse effects NOS</t>
   </si>
 </sst>
 </file>
@@ -347,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,14 +416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -548,51 +574,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -696,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -708,18 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -744,21 +713,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -782,36 +751,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,16 +769,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,13 +790,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6127AA57-EEFA-448E-A14C-07709EF56026}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1197,67 +1142,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1265,28 +1210,28 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="38" t="s">
+      <c r="E5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1306,16 +1251,16 @@
       <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="F6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1335,16 +1280,16 @@
       <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="F7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1364,16 +1309,16 @@
       <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1393,16 +1338,16 @@
       <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1422,16 +1367,16 @@
       <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1451,16 +1396,16 @@
       <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="F11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1480,16 +1425,16 @@
       <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="F12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1509,16 +1454,16 @@
       <c r="E13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="F13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1538,16 +1483,16 @@
       <c r="E14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="F14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1567,16 +1512,16 @@
       <c r="E15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="F15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1596,16 +1541,16 @@
       <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="20" t="s">
+      <c r="F16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1625,16 +1570,16 @@
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="20" t="s">
+      <c r="F17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1654,16 +1599,16 @@
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1683,16 +1628,16 @@
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="F19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1712,17 +1657,17 @@
       <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>95</v>
+      <c r="F20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1741,16 +1686,16 @@
       <c r="E21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="20" t="s">
+      <c r="F21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1770,16 +1715,16 @@
       <c r="E22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="20" t="s">
+      <c r="F22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1799,16 +1744,16 @@
       <c r="E23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="F23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1828,16 +1773,16 @@
       <c r="E24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="F24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1857,16 +1802,16 @@
       <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="20" t="s">
+      <c r="F25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1886,16 +1831,16 @@
       <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="F26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1915,16 +1860,16 @@
       <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="20" t="s">
+      <c r="F27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1944,16 +1889,16 @@
       <c r="E28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="20" t="s">
+      <c r="F28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1973,16 +1918,16 @@
       <c r="E29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="F29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2002,16 +1947,16 @@
       <c r="E30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="20" t="s">
+      <c r="F30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2031,16 +1976,16 @@
       <c r="E31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="20" t="s">
+      <c r="F31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2060,16 +2005,16 @@
       <c r="E32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="20" t="s">
+      <c r="F32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2089,16 +2034,16 @@
       <c r="E33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="19" t="s">
+      <c r="F33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2118,16 +2063,16 @@
       <c r="E34" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="19" t="s">
+      <c r="F34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2147,16 +2092,16 @@
       <c r="E35" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="F35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2176,16 +2121,16 @@
       <c r="E36" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2205,16 +2150,16 @@
       <c r="E37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="F37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2222,28 +2167,28 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="19" t="s">
+      <c r="F38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2251,28 +2196,28 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="19" t="s">
+      <c r="F39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2280,129 +2225,244 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="19" t="s">
+      <c r="F40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="44" t="b">
+      <c r="E41" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="42" t="s">
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="54" t="s">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="C43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
       <c r="B44" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="F44" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="I44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="10" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I45" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="I45" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
